--- a/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/political_parties_ar.xlsx
+++ b/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/political_parties_ar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>التنظيم (مترجمه)</t>
+          <t>القاعدة (مترجمه)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">معاداة الشيوعية ,قومية لبنانية ,عصبية قومية </t>
+          <t>معاداة الشيوعية ,إس إف إن (مترجمه),إسلاموية ,أصولية إسلامية ,الفصائل (مترجمه),معاداة الصهيونية ,قائمة قابلة للطي (مترجمه),مكان (مترجمه),معاداة الاستعمارية ,المشاعر المعادية للهند (مترجمه),التحالف السني الشيعي (مترجمه),ويلسكي سيولو (مترجمه),الجهادية (مترجمه),معاداة السامية ,الفصائل الإسلامية القومية (مترجمه),معاداة أمريكا (مترجمه),ديوبندية ,التحالف السني الشيعي (مترجمه),السلفية ,ضد المثليين (مترجمه),الوحدة الاسلامية (مترجمه),الأصولية الإسلامية معاداة أمريكا معاداة الشيوعية معاداة الإمبريالية المشاعر المعادية للهنود معاداة المثليين معاداة السامية معاداة الإمبريالية الغربية معاداة الصهيونية قائمة بسيطة (مترجمه),الإمبريالية المعادية للغرب (مترجمه),الجهادية الديوبندية (مترجمه),قائمة بسيطة (مترجمه),غالاغر (مترجمه),رايت (مترجمه),مصدر (توضيح) ,حيز غير مقطوع ,جوناراتنا (مترجمه),برغن ,بيتر ل (مترجمه),حرب دينية ,داخل العالم السري لأسامة بن لادن (مترجمه),صحيفة نيويورك فري برس (مترجمه),ص ص- (مترجمه),الدعوة الوهابية ,التيار القطبي ,عالم الحديث (مترجمه),تم نفيه رسميا (مترجمه),مقدمة (مترجمه),ص ص (مترجمه),قطبية الجهادية وحدة المسلمين (مترجمه),مقدمة (مترجمه),ص ص (مترجمه),قائمة بسيطة (مترجمه),التعددية الإسلامية (مترجمه)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,17 +476,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>كما الصاعقة (مترجمه)</t>
+          <t>هاى (مترجمه)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>بعثية ,القومية العربية (مترجمه)</t>
+          <t xml:space="preserve">القومية اليسارية (مترجمه),اشتراكية ثورية ,الماركسيةاللينينية (مترجمه),قومية أرمنية </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>أقصى اليسار (مترجمه)</t>
+          <t>من اليسار إلى أقصى اليسار (مترجمه)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -494,53 +494,61 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>الكتلة الدستورية (مترجمه)</t>
+          <t xml:space="preserve">حركة حماس </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">العهد الوطني (مترجمه),قومية مدنية ,اللاطائفية ,ليبرالية علمانية </t>
+          <t xml:space="preserve">إس إف إن (مترجمه),أصولية إسلامية ,مادة (مترجمه),معاداة الصهيونية ,ص ص (مترجمه),– إس إف إن (مترجمه),- مادة (مترجمه),أوبل (مترجمه),وطنية فلسطينية ,سياسة عسكرية ,دالاكورا (مترجمه),جيلفين (مترجمه),إس إف إن (مترجمه),مادة (مترجمه),إس إف إن (مترجمه),دونينج (مترجمه),ليتفاك (مترجمه),شرطة أفقية ,– إس إف إن (مترجمه),شرطة أفقية ,ستيبانوفا (مترجمه),شيما (مترجمه),مادة (مترجمه),القومية الاسلامية (مترجمه),إسلاموية </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مركز (توضيح) </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>يحيى السنوار ,خليل الحية (مترجمه),ابو عمر حسن (مترجمه),يحيى السنوار ,اغتيال محمد ضيف الله عفن (مترجمه),اغتيال محمد ضيف (مترجمه)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">التيار الوطني الحر </t>
+          <t xml:space="preserve">القوات اللبنانية </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">قومية مدنية ,قومية لبنانية ,تزعم مصادر مختلفة وجود القومية المدنية والقومية المسيحية (مترجمه),ديمقراطية مسيحية </t>
+          <t xml:space="preserve">محافظة ليبرالية ,قومية لبنانية ,ديمقراطية مسيحية </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>يمينية ,مركز (توضيح) ,أوبل (مترجمه),يسار الوسط (مترجمه)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t xml:space="preserve">يمينية </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سمير جعجع ,بشير الجميل ,نائب الرئيس </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">حراس الأرز </t>
+          <t xml:space="preserve">القوات اللبنانية </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">معاداة الشيوعية ,محافظة اجتماعية ,فاشية ,قومية لبنانية ,معاداة فلسطين والعلمانية (مترجمه),قومية إثنية ,قومية فينيقية ,عصبية قومية </t>
+          <t>معاداة الشيوعية ,الفيدرالية في لبنان (مترجمه),قومية لبنانية ,سياسة محافظة ,قومية مسيحية ,موارنة ,معاداة العروبة (مترجمه)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>اليمين المتطرف (مترجمه)</t>
+          <t>من اليمين إلى أقصى اليمين (مترجمه)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -548,61 +556,53 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>حزب الكتائب اللبنانية (مترجمه)</t>
+          <t xml:space="preserve">الجبهة اللبنانية </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">معاداة الشيوعية ,قومية مسيحية ,محافظة اجتماعية ,قومية لبنانية ,مارونية سياسية ,الفلانخية ,ديمقراطية مسيحية </t>
+          <t xml:space="preserve">معاداة العرب (مترجمه),معاداة الشيوعية ,الفصائل (مترجمه),قومية فينيقية ,معاداة القومية العربية (مترجمه),معاداة فلسطين (مترجمه),قومية لبنانية ,قومية مسيحية ,الفلانخية </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>يمين الوسط (مترجمه),يمينية ,أقصى اليمين (مترجمه)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">سامي الجميل ,بيار الجميل </t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">القوات اللبنانية </t>
+          <t xml:space="preserve">منظمة التحرير الفلسطينية </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">قومية لبنانية ,محافظة ليبرالية ,ديمقراطية مسيحية </t>
+          <t xml:space="preserve">القومية العربية (مترجمه),ماركسية ,فصائل أغسطس (مترجمه),علمانية ,الفصائل (مترجمه),أوبل (مترجمه),معاداة الصهيونية ,حل الدولة الواحدة (مترجمه),أغسطس البعثية الماركسية (مترجمه),وطنية فلسطينية ,معاداة الاستعمارية ,بعثية ,حل الدولة الواحدة معاداة الصهيونية (مترجمه),أغسطس ,سي إن (مترجمه),اشتراكية عربية ,قومية عربية </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">يمينية </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">سمير جعجع ,بشير الجميل ,نائب الرئيس </t>
-        </is>
-      </c>
+          <t xml:space="preserve">يسارية </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">القوات اللبنانية </t>
+          <t xml:space="preserve">منظمة التحرير الفلسطينية </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>معاداة الشيوعية ,قومية مسيحية ,قومية لبنانية ,موارنة ,مناهضة القومية العربية (مترجمه),سياسة محافظة ,الفيدرالية في لبنان (مترجمه)</t>
+          <t xml:space="preserve">القومية العربية (مترجمه),ماركسية ,فصائل أغسطس (مترجمه),علمانية ,الفصائل (مترجمه),أوبل (مترجمه),معاداة الصهيونية ,حل الدولة الواحدة (مترجمه),أغسطس البعثية الماركسية (مترجمه),وطنية فلسطينية ,معاداة الاستعمارية ,بعثية ,حل الدولة الواحدة معاداة الصهيونية (مترجمه),أغسطس ,سي إن (مترجمه),اشتراكية عربية ,قومية عربية </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>من اليمين إلى أقصى اليمين (مترجمه)</t>
+          <t xml:space="preserve">يسارية </t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -610,35 +610,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">القوات اللبنانية </t>
+          <t>حزب الكتائب اللبنانية (مترجمه)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>معاداة الشيوعية ,قومية مسيحية ,قومية لبنانية ,موارنة ,مناهضة القومية العربية (مترجمه),سياسة محافظة ,الفيدرالية في لبنان (مترجمه)</t>
+          <t xml:space="preserve">قومية مسيحية ,معاداة الشيوعية ,محافظة اجتماعية ,مارونية سياسية ,قومية لبنانية ,ديمقراطية مسيحية ,الفلانخية </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>من اليمين إلى أقصى اليمين (مترجمه)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>يمينية ,أقصى اليمين (مترجمه),يمين الوسط (مترجمه)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سامي الجميل ,بيار الجميل </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">القوات اللبنانية </t>
+          <t xml:space="preserve">جيش لبنان الجنوبي </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>معاداة الشيوعية ,قومية مسيحية ,قومية لبنانية ,موارنة ,مناهضة القومية العربية (مترجمه),سياسة محافظة ,الفيدرالية في لبنان (مترجمه)</t>
+          <t xml:space="preserve">معاداة الشيوعية ,الوحدة الاسلامية المسيحية (مترجمه),علمانية ,الفصائل (مترجمه),صهيونية ,معاداة فلسطين (مترجمه),التعددية المذهبية (مترجمه),مارونية سياسية ,قومية لبنانية </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>من اليمين إلى أقصى اليمين (مترجمه)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -646,160 +650,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">الجبهة اللبنانية </t>
+          <t xml:space="preserve">الحزب السوري القومي الاجتماعي </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>معاداة الشيوعية ,الفصائل (مترجمه),قومية مسيحية ,معاداة العرب (مترجمه),قومية لبنانية ,معاداة فلسطين (مترجمه),الفلانخية ,قومية فينيقية ,معاداة القومية العربية (مترجمه)</t>
+          <t xml:space="preserve">معاداة السامية ,قومية اقتصادية ,معاداة الشيوعية ,قومية يسارية ,أوبل (مترجمه),قائمة قابلة للطي (مترجمه),التحرر السوري (مترجمه),القومية السورية ,فاشية </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">الكتلة الوطنية (توضيح) </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">قومية لبنانية ,محافظة ليبرالية ,ليبرالية ,الفرانكوفيليا (مترجمه),علمانية </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">مركز (توضيح) </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">الحركة الوطنية اللبنانية </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">معاداة الصهيونية ,قومية عربية ,وطنية فلسطينية ,التعددية المذهبية (مترجمه),اللاطائفية ,القومية العربية (مترجمه),اشتراكية ,شيوعية ,علمانية </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>لواء المردةجيش تحرير زغرتا (مترجمه)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">معاداة الصهيونية ,قومية لبنانية ,قومية مسيحية ,يمين مسيحي </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تيار المردة </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">قومية لبنانية ,الحكومة الموالية لسوريا (مترجمه),ديمقراطية مسيحية </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">يمينية </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">سليمان فرنجية ,جونيور (مترجمه),سليمان فرنجية </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>الحزب الليبرالي الوطني (مترجمه)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">فدرالية ,ليبرالية وطنية ,ليبرالية اقتصادية </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>يمين الوسط (مترجمه)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">كميل دوري شمعون ,روبرت خوري (مترجمه),فرانسوا زعتر (مترجمه),كميل شمعون </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">منظمة التحرير الفلسطينية </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">معاداة الاستعمارية ,الفصائل (مترجمه),معاداة الصهيونية ,سي إن (مترجمه),قومية عربية ,حل الدولة الواحدة معاداة الصهيونية (مترجمه),وطنية فلسطينية ,حل الدولة الواحدة (مترجمه),اشتراكية عربية ,بعثية ,أوبل (مترجمه),القومية العربية (مترجمه),ماركسية ,أغسطس البعثية الماركسية (مترجمه),فصائل أغسطس (مترجمه),أغسطس ,علمانية </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">يسارية </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">محمود عباس </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">الحزب السوري القومي الاجتماعي </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">معاداة الشيوعية ,التحرر السوري (مترجمه),القومية السورية ,فاشية ,قومية يسارية ,معاداة السامية ,أوبل (مترجمه),قائمة قابلة للطي (مترجمه),قومية اقتصادية </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>و يمين (مترجمه),و يمين (مترجمه),في بعض الأحيان يتم تصنيفها على أنها يمينية متطرفة (مترجمه),في بعض الأحيان يتم تصنيفها على أنها يمينية متطرفة (مترجمه),efn مزامنة (مترجمه),في الماضي (مترجمه),لقد أخطأ البعض في اعتبار الحزب أو عناصر أيديولوجيته أو أعضائه منتمين إلى اليسار السياسي. (مترجمه)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">داء الكلب بنات (مترجمه),أنطون سعادة </t>
+          <t>و يمين (مترجمه),في الماضي (مترجمه),لقد أخطأ البعض في اعتبار الحزب أو عناصر أيديولوجيته أو أعضائه منتمين إلى اليسار السياسي. (مترجمه),في بعض الأحيان يتم تصنيفها على أنها يمينية متطرفة (مترجمه),efn مزامنة (مترجمه),و يمين (مترجمه),في بعض الأحيان يتم تصنيفها على أنها يمينية متطرفة (مترجمه)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>داء الكلب بنات (مترجمه)</t>
         </is>
       </c>
     </row>
